--- a/downloaded_files/EEES280_Lecture-35380.xlsx
+++ b/downloaded_files/EEES280_Lecture-35380.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -168,6 +168,15 @@
     <x:t>Habiba Magdy Kamel Mahmoud Ammar</x:t>
   </x:si>
   <x:si>
+    <x:t>1220330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رايه على صبرى الفراج</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Raya Ali Sabri ELFarraj </x:t>
+  </x:si>
+  <x:si>
     <x:t>1220049</x:t>
   </x:si>
   <x:si>
@@ -220,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Sara Mohamed Mostafa Zohir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساره احمد عبد الفتاح محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sara ahmed abdelfattah mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220172</x:t>
@@ -656,7 +674,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -956,7 +974,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T60"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1527,7 +1545,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4188942477</x:v>
+        <x:v>45919.6669706829</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1559,7 +1577,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.4188942477</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1591,7 +1609,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4199405903</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1623,7 +1641,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4199405903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1655,7 +1673,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4170278935</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1687,7 +1705,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.7054444097</x:v>
+        <x:v>45907.4170278935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1719,7 +1737,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45912.7054444097</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1751,7 +1769,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.7194763079</x:v>
+        <x:v>45919.6663769676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1783,7 +1801,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.5630936343</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1815,7 +1833,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45912.7194763079</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1847,7 +1865,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45913.5630936343</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1879,7 +1897,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1911,7 +1929,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1943,7 +1961,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1975,7 +1993,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2007,7 +2025,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4142324074</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2039,7 +2057,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.710209919</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2071,7 +2089,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45907.4142324074</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2103,7 +2121,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4156007292</x:v>
+        <x:v>45912.710209919</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2135,7 +2153,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.7120326389</x:v>
+        <x:v>45907.4149399653</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2167,7 +2185,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45906.4156007292</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2199,7 +2217,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4144550579</x:v>
+        <x:v>45912.7120326389</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2231,7 +2249,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2263,7 +2281,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.4144550579</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2295,7 +2313,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2327,7 +2345,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2359,7 +2377,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2391,7 +2409,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4150756597</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2423,7 +2441,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2455,7 +2473,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45907.4150756597</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2487,7 +2505,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.7064896991</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2519,7 +2537,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.7071800579</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2551,7 +2569,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45912.7064896991</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2583,7 +2601,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45912.7071800579</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2611,9 +2629,11 @@
       <x:c r="C51" s="2" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="D51" s="2" t="s"/>
+      <x:c r="D51" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2636,16 +2656,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2668,16 +2688,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="D53" s="2" t="s">
         <x:v>159</x:v>
       </x:c>
+      <x:c r="D53" s="2" t="s"/>
       <x:c r="E53" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2709,7 +2727,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2741,7 +2759,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2773,7 +2791,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2805,7 +2823,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45912.6980590278</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2837,7 +2855,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2854,6 +2872,70 @@
       <x:c r="R58" s="2" t="s"/>
       <x:c r="S58" s="2" t="s"/>
       <x:c r="T58" s="2" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20">
+      <x:c r="A59" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E59" s="3">
+        <x:v>45912.6980590278</x:v>
+      </x:c>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="2" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="2" t="s"/>
+      <x:c r="Q59" s="2" t="s"/>
+      <x:c r="R59" s="2" t="s"/>
+      <x:c r="S59" s="2" t="s"/>
+      <x:c r="T59" s="2" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20">
+      <x:c r="A60" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="E60" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="2" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="2" t="s"/>
+      <x:c r="Q60" s="2" t="s"/>
+      <x:c r="R60" s="2" t="s"/>
+      <x:c r="S60" s="2" t="s"/>
+      <x:c r="T60" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EEES280_Lecture-35380.xlsx
+++ b/downloaded_files/EEES280_Lecture-35380.xlsx
@@ -2942,11 +2942,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (EEES280) Location : 1125- 170 Time : Sunday(8:9)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (EEES280) Location : [18102]18102-60-الجيزة الرئيسي Time : Sunday(8:9)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (EEES280) Location : 1125- 170 Time : Sunday(8:9)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (EEES280) Location : [18102]18102-60-الجيزة الرئيسي Time : Sunday(8:9)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (EEES280) Location : 1125- 170 Time : Sunday(8:9)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (EEES280) Location : [18102]18102-60-الجيزة الرئيسي Time : Sunday(8:9)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EEES280_Lecture-35380.xlsx
+++ b/downloaded_files/EEES280_Lecture-35380.xlsx
@@ -324,7 +324,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -982,7 +982,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>

--- a/downloaded_files/EEES280_Lecture-35380.xlsx
+++ b/downloaded_files/EEES280_Lecture-35380.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Rawan Khaled Abdullah elsayed Hassouna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ريناد عصام عراقي بكري امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#N/A</x:t>
   </x:si>
   <x:si>
     <x:t>4230148</x:t>
@@ -674,7 +683,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -974,7 +983,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T60"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1609,7 +1618,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45927.4144800579</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1641,7 +1650,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4199405903</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1673,7 +1682,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4199405903</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1705,7 +1714,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4170278935</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1737,7 +1746,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.7054444097</x:v>
+        <x:v>45907.4170278935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1769,7 +1778,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45919.6663769676</x:v>
+        <x:v>45912.7054444097</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1801,7 +1810,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45919.6663769676</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1833,7 +1842,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.7194763079</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1865,7 +1874,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.5630936343</x:v>
+        <x:v>45912.7194763079</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1897,7 +1906,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45913.5630936343</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1929,7 +1938,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1961,7 +1970,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1993,7 +2002,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2025,7 +2034,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2057,7 +2066,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2089,7 +2098,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4142324074</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2121,7 +2130,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.710209919</x:v>
+        <x:v>45907.4142324074</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2153,7 +2162,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45912.710209919</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4156007292</x:v>
+        <x:v>45907.4149399653</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.7120326389</x:v>
+        <x:v>45906.4156007292</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2249,7 +2258,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45912.7120326389</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2281,7 +2290,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4144550579</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2313,7 +2322,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45907.4144550579</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2377,7 +2386,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2409,7 +2418,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2441,7 +2450,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2473,7 +2482,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4150756597</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2505,7 +2514,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45907.4150756597</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2537,7 +2546,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2569,7 +2578,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.7064896991</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2601,7 +2610,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.7071800579</x:v>
+        <x:v>45912.7064896991</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2633,7 +2642,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45912.7071800579</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2665,7 +2674,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2693,9 +2702,11 @@
       <x:c r="C53" s="2" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="D53" s="2" t="s"/>
+      <x:c r="D53" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2718,16 +2729,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="D54" s="2" t="s">
         <x:v>162</x:v>
       </x:c>
+      <x:c r="D54" s="2" t="s"/>
       <x:c r="E54" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2759,7 +2768,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2791,7 +2800,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2823,7 +2832,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2855,7 +2864,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2887,7 +2896,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45912.6980590278</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2919,7 +2928,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45912.6980590278</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2936,6 +2945,38 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
